--- a/ЗАВОДЫ/Новые Фермы/2025/12,25/02,12,25 на 08,12,25/заказ НФ 02,12,25 на 08,12,25.xlsx
+++ b/ЗАВОДЫ/Новые Фермы/2025/12,25/02,12,25 на 08,12,25/заказ НФ 02,12,25 на 08,12,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\02,12,25 на 08,12,25 НФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Новые Фермы\2025\12,25\02,12,25 на 08,12,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A707415-953C-4553-BF1F-121AC4A9E8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94129C4-2A20-4929-B40D-E82BCDA3ADF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
